--- a/04_test_results/TSP_results.xlsx
+++ b/04_test_results/TSP_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kude-my.sharepoint.com/personal/dennis_goetz_stud_ku_de/Documents/Dokumente/03_Master/07_Masterarbeit/05_Code/02_github/04_test_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_4152D813AA619AFC6D7D62E2E1276A156B7788F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D4CB7D3-6D09-4923-B13E-46823931947C}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_4052D813D9195DA92BD056230CD282331AC89635" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F986D09E-3F19-4F73-9C82-4344A2C7EC1C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="run_times" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
   <si>
     <t>KNN</t>
   </si>
@@ -44,13 +44,13 @@
     <t>Random Forest</t>
   </si>
   <si>
-    <t>Gradient Boosting Regression Trees</t>
+    <t>GBRT</t>
   </si>
   <si>
     <t>XGBoost</t>
   </si>
   <si>
-    <t>Linear SVM</t>
+    <t>SVM</t>
   </si>
   <si>
     <t>Kernel Machine</t>
@@ -62,34 +62,31 @@
     <t>CV times</t>
   </si>
   <si>
-    <t>27s</t>
-  </si>
-  <si>
-    <t>3s</t>
-  </si>
-  <si>
-    <t>33s</t>
+    <t>16s</t>
   </si>
   <si>
     <t>2s</t>
   </si>
   <si>
-    <t>4m, 20s</t>
-  </si>
-  <si>
-    <t>2m, 39s</t>
-  </si>
-  <si>
-    <t>24s</t>
-  </si>
-  <si>
-    <t>31s</t>
-  </si>
-  <si>
-    <t>4m, 57s</t>
-  </si>
-  <si>
-    <t>17m, 6s</t>
+    <t>13m, 4s</t>
+  </si>
+  <si>
+    <t>4s</t>
+  </si>
+  <si>
+    <t>2m, 59s</t>
+  </si>
+  <si>
+    <t>2m, 0s</t>
+  </si>
+  <si>
+    <t>17s</t>
+  </si>
+  <si>
+    <t>13m, 5s</t>
+  </si>
+  <si>
+    <t>12m, 8s</t>
   </si>
   <si>
     <t>Fit times</t>
@@ -98,46 +95,40 @@
     <t>0s</t>
   </si>
   <si>
-    <t>18s</t>
-  </si>
-  <si>
-    <t>2m, 26s</t>
-  </si>
-  <si>
-    <t>2m, 57s</t>
-  </si>
-  <si>
-    <t>8s</t>
-  </si>
-  <si>
-    <t>50s</t>
-  </si>
-  <si>
-    <t>6m, 17s</t>
-  </si>
-  <si>
-    <t>27m, 2s</t>
+    <t>6m, 21s</t>
+  </si>
+  <si>
+    <t>1m, 49s</t>
+  </si>
+  <si>
+    <t>2m, 28s</t>
+  </si>
+  <si>
+    <t>6s</t>
+  </si>
+  <si>
+    <t>4m, 3s</t>
+  </si>
+  <si>
+    <t>33m, 11s</t>
   </si>
   <si>
     <t>Prediction times</t>
   </si>
   <si>
-    <t>23s</t>
-  </si>
-  <si>
-    <t>Train Set</t>
-  </si>
-  <si>
-    <t>Test Set</t>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>19s</t>
+  </si>
+  <si>
+    <t>Train set</t>
+  </si>
+  <si>
+    <t>Test set</t>
   </si>
   <si>
     <t>Mean</t>
-  </si>
-  <si>
-    <t>GBRT</t>
-  </si>
-  <si>
-    <t>SVM</t>
   </si>
 </sst>
 </file>
@@ -213,10 +204,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,22 +493,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -544,13 +520,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -588,89 +564,89 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -694,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -723,31 +699,31 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>3.52</v>
       </c>
       <c r="C2">
-        <v>4.32</v>
+        <v>4.25</v>
       </c>
       <c r="D2">
-        <v>5.41</v>
+        <v>4.5699999999999994</v>
       </c>
       <c r="E2">
-        <v>6.12</v>
+        <v>5.37</v>
       </c>
       <c r="F2">
-        <v>7.36</v>
+        <v>6.09</v>
       </c>
       <c r="G2">
-        <v>7.91</v>
+        <v>7.93</v>
       </c>
       <c r="H2">
-        <v>11.63</v>
+        <v>11.57</v>
       </c>
       <c r="I2">
-        <v>19.399999999999999</v>
+        <v>19.18</v>
       </c>
       <c r="J2">
         <v>20.64</v>
@@ -756,45 +732,45 @@
         <v>20.64</v>
       </c>
       <c r="L2">
-        <v>23.77</v>
+        <v>22.66</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="C3">
-        <v>4.1900000000000004</v>
+        <v>4.05</v>
       </c>
       <c r="D3">
-        <v>5.27</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E3">
-        <v>5.81</v>
+        <v>5.12</v>
       </c>
       <c r="F3">
-        <v>7.24</v>
+        <v>5.75</v>
       </c>
       <c r="G3">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="H3">
-        <v>11.44</v>
+        <v>11.16</v>
       </c>
       <c r="I3">
-        <v>19.739999999999998</v>
+        <v>19.53</v>
       </c>
       <c r="J3">
-        <v>21.08</v>
+        <v>21.09</v>
       </c>
       <c r="K3">
         <v>21.09</v>
       </c>
       <c r="L3">
-        <v>22.42</v>
+        <v>21.32</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -818,13 +796,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -836,89 +814,89 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>0.95650000000000002</v>
+        <v>0.96</v>
       </c>
       <c r="C2">
-        <v>1.1145</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="D2">
-        <v>1.5627</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E2">
-        <v>1.8354999999999999</v>
+        <v>1.54</v>
       </c>
       <c r="F2">
-        <v>1.8885000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="G2">
-        <v>2.3605</v>
+        <v>2.38</v>
       </c>
       <c r="H2">
-        <v>3.8860000000000001</v>
+        <v>3.84</v>
       </c>
       <c r="I2">
-        <v>4.0674999999999999</v>
+        <v>4.12</v>
       </c>
       <c r="J2">
-        <v>4.2858000000000001</v>
+        <v>4.53</v>
       </c>
       <c r="K2">
-        <v>4.2855999999999996</v>
+        <v>4.29</v>
       </c>
       <c r="L2">
-        <v>4.6775000000000002</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>0.89990000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1.0652999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="D3">
-        <v>1.4826999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E3">
-        <v>1.7169000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="F3">
-        <v>1.8596999999999999</v>
+        <v>1.71</v>
       </c>
       <c r="G3">
-        <v>2.2446000000000002</v>
+        <v>2.29</v>
       </c>
       <c r="H3">
-        <v>3.7323</v>
+        <v>3.61</v>
       </c>
       <c r="I3">
-        <v>4.1740000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="J3">
-        <v>4.3982000000000001</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="K3">
-        <v>4.3982999999999999</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L3">
-        <v>4.5122999999999998</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -931,12 +909,12 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K12"/>
+      <selection activeCell="B12" sqref="B12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -968,7 +946,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -976,34 +954,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2.2200000000000002</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C2">
-        <v>2.31</v>
+        <v>2.39</v>
       </c>
       <c r="D2">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="E2">
-        <v>2.9</v>
+        <v>2.81</v>
       </c>
       <c r="F2">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="G2">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
       <c r="H2">
-        <v>3.73</v>
+        <v>3.59</v>
       </c>
       <c r="I2">
-        <v>3.93</v>
+        <v>3.94</v>
       </c>
       <c r="J2">
-        <v>4.3600000000000003</v>
+        <v>4.17</v>
       </c>
       <c r="K2">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1011,139 +989,139 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>3.67</v>
+        <v>3.38</v>
       </c>
       <c r="C3">
-        <v>3.02</v>
+        <v>2.82</v>
       </c>
       <c r="D3">
         <v>3.44</v>
       </c>
       <c r="E3">
-        <v>3.46</v>
+        <v>3.35</v>
       </c>
       <c r="F3">
-        <v>3.76</v>
+        <v>3.62</v>
       </c>
       <c r="G3">
-        <v>3.94</v>
+        <v>3.87</v>
       </c>
       <c r="H3">
-        <v>4.4000000000000004</v>
+        <v>4.38</v>
       </c>
       <c r="I3">
-        <v>4.8499999999999996</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="J3">
-        <v>5.58</v>
+        <v>5.21</v>
       </c>
       <c r="K3">
-        <v>4.1900000000000004</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>4.4800000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="C4">
-        <v>4.84</v>
+        <v>3.12</v>
       </c>
       <c r="D4">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="E4">
-        <v>4.99</v>
+        <v>3.55</v>
       </c>
       <c r="F4">
-        <v>5.15</v>
+        <v>3.88</v>
       </c>
       <c r="G4">
-        <v>4.9800000000000004</v>
+        <v>4.1000000000000014</v>
       </c>
       <c r="H4">
-        <v>5.44</v>
+        <v>4.82</v>
       </c>
       <c r="I4">
-        <v>5.62</v>
+        <v>5.26</v>
       </c>
       <c r="J4">
-        <v>6.12</v>
+        <v>5.7</v>
       </c>
       <c r="K4">
-        <v>5.27</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>4.92</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="C5">
-        <v>5.28</v>
+        <v>4.37</v>
       </c>
       <c r="D5">
-        <v>5.59</v>
+        <v>4.83</v>
       </c>
       <c r="E5">
-        <v>5.45</v>
+        <v>4.67</v>
       </c>
       <c r="F5">
-        <v>5.8</v>
+        <v>5.1499999999999986</v>
       </c>
       <c r="G5">
-        <v>5.33</v>
+        <v>4.82</v>
       </c>
       <c r="H5">
-        <v>5.99</v>
+        <v>5.1499999999999986</v>
       </c>
       <c r="I5">
-        <v>6.19</v>
+        <v>5.4899999999999993</v>
       </c>
       <c r="J5">
-        <v>6.69</v>
+        <v>6.1</v>
       </c>
       <c r="K5">
-        <v>5.81</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>5.27</v>
+        <v>4.72</v>
       </c>
       <c r="C6">
-        <v>5.71</v>
+        <v>5.08</v>
       </c>
       <c r="D6">
-        <v>6.65</v>
+        <v>5.57</v>
       </c>
       <c r="E6">
-        <v>6.67</v>
+        <v>5.35</v>
       </c>
       <c r="F6">
-        <v>7.58</v>
+        <v>5.69</v>
       </c>
       <c r="G6">
-        <v>6.6</v>
+        <v>5.45</v>
       </c>
       <c r="H6">
-        <v>7.33</v>
+        <v>5.88</v>
       </c>
       <c r="I6">
-        <v>7.85</v>
+        <v>6.17</v>
       </c>
       <c r="J6">
-        <v>9.16</v>
+        <v>6.63</v>
       </c>
       <c r="K6">
-        <v>7.24</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1151,34 +1129,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.56</v>
+        <v>6.72</v>
       </c>
       <c r="C7">
-        <v>7.15</v>
+        <v>7.0499999999999989</v>
       </c>
       <c r="D7">
-        <v>7.41</v>
+        <v>7.33</v>
       </c>
       <c r="E7">
-        <v>7.2</v>
+        <v>7.16</v>
       </c>
       <c r="F7">
+        <v>7.71</v>
+      </c>
+      <c r="G7">
         <v>7.62</v>
       </c>
-      <c r="G7">
-        <v>7.35</v>
-      </c>
       <c r="H7">
-        <v>7.88</v>
+        <v>7.76</v>
       </c>
       <c r="I7">
-        <v>8.26</v>
+        <v>8.27</v>
       </c>
       <c r="J7">
-        <v>8.84</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="K7">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1186,34 +1164,34 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>11.32</v>
+        <v>9.98</v>
       </c>
       <c r="C8">
-        <v>12.03</v>
+        <v>11.18</v>
       </c>
       <c r="D8">
-        <v>11.59</v>
+        <v>11.05</v>
       </c>
       <c r="E8">
-        <v>11.24</v>
+        <v>11.39</v>
       </c>
       <c r="F8">
-        <v>11.62</v>
+        <v>11.21</v>
       </c>
       <c r="G8">
-        <v>10.97</v>
+        <v>10.83</v>
       </c>
       <c r="H8">
-        <v>11.51</v>
+        <v>11.11</v>
       </c>
       <c r="I8">
-        <v>11.13</v>
+        <v>11.31</v>
       </c>
       <c r="J8">
-        <v>11.73</v>
+        <v>11.68</v>
       </c>
       <c r="K8">
-        <v>11.44</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1221,34 +1199,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>22.73</v>
+        <v>25.11</v>
       </c>
       <c r="C9">
-        <v>19.399999999999999</v>
+        <v>21.41</v>
       </c>
       <c r="D9">
-        <v>19.260000000000002</v>
+        <v>20.51</v>
       </c>
       <c r="E9">
-        <v>16.84</v>
+        <v>17.34</v>
       </c>
       <c r="F9">
-        <v>16.59</v>
+        <v>16.77</v>
       </c>
       <c r="G9">
-        <v>13.92</v>
+        <v>13.96</v>
       </c>
       <c r="H9">
-        <v>17.75</v>
+        <v>17.02</v>
       </c>
       <c r="I9">
-        <v>19.29</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="J9">
-        <v>29.69</v>
+        <v>26.84</v>
       </c>
       <c r="K9">
-        <v>19.739999999999998</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1256,34 +1234,34 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>22.16</v>
+        <v>22.21</v>
       </c>
       <c r="C10">
-        <v>18.53</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="D10">
-        <v>18.690000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E10">
-        <v>16.5</v>
+        <v>16.47</v>
       </c>
       <c r="F10">
-        <v>16.62</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G10">
-        <v>14.39</v>
+        <v>14.35</v>
       </c>
       <c r="H10">
-        <v>19.03</v>
+        <v>19.04</v>
       </c>
       <c r="I10">
-        <v>21.81</v>
+        <v>21.86</v>
       </c>
       <c r="J10">
-        <v>35.75</v>
+        <v>35.82</v>
       </c>
       <c r="K10">
-        <v>21.08</v>
+        <v>21.09</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1291,31 +1269,31 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>22.16</v>
+        <v>22.21</v>
       </c>
       <c r="C11">
-        <v>18.54</v>
+        <v>18.52</v>
       </c>
       <c r="D11">
-        <v>18.690000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E11">
-        <v>16.48</v>
+        <v>16.46</v>
       </c>
       <c r="F11">
-        <v>16.62</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G11">
-        <v>14.4</v>
+        <v>14.35</v>
       </c>
       <c r="H11">
-        <v>19.03</v>
+        <v>19.04</v>
       </c>
       <c r="I11">
-        <v>21.81</v>
+        <v>21.86</v>
       </c>
       <c r="J11">
-        <v>35.78</v>
+        <v>35.85</v>
       </c>
       <c r="K11">
         <v>21.09</v>
@@ -1326,34 +1304,34 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>26.99</v>
+        <v>24.58</v>
       </c>
       <c r="C12">
-        <v>23.09</v>
+        <v>21.93</v>
       </c>
       <c r="D12">
-        <v>23.06</v>
+        <v>22.43</v>
       </c>
       <c r="E12">
-        <v>22.54</v>
+        <v>21.5</v>
       </c>
       <c r="F12">
-        <v>23.16</v>
+        <v>22.49</v>
       </c>
       <c r="G12">
-        <v>20.63</v>
+        <v>19.87</v>
       </c>
       <c r="H12">
-        <v>21.46</v>
+        <v>20.53</v>
       </c>
       <c r="I12">
-        <v>20.420000000000002</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="J12">
-        <v>23.23</v>
+        <v>21.95</v>
       </c>
       <c r="K12">
-        <v>22.42</v>
+        <v>21.32</v>
       </c>
     </row>
   </sheetData>
@@ -1365,13 +1343,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1403,7 +1379,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1411,34 +1387,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.80389999999999995</v>
+        <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.83750000000000002</v>
+        <v>0.85</v>
       </c>
       <c r="D2">
-        <v>0.85819999999999996</v>
+        <v>0.85</v>
       </c>
       <c r="E2">
-        <v>0.85819999999999996</v>
+        <v>0.85</v>
       </c>
       <c r="F2">
-        <v>0.83750000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G2">
-        <v>0.88060000000000005</v>
+        <v>0.89</v>
       </c>
       <c r="H2">
-        <v>0.93559999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="I2">
-        <v>0.97060000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="J2">
-        <v>0.97389999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="K2">
-        <v>0.89990000000000003</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1446,139 +1422,139 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1.2048000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C3">
-        <v>1.0055000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="D3">
-        <v>1.008</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.97340000000000004</v>
+        <v>0.96</v>
       </c>
       <c r="F3">
-        <v>0.98199999999999998</v>
+        <v>0.95</v>
       </c>
       <c r="G3">
-        <v>0.997</v>
+        <v>0.97</v>
       </c>
       <c r="H3">
-        <v>1.0383</v>
+        <v>1.02</v>
       </c>
       <c r="I3">
-        <v>1.1464000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J3">
-        <v>1.1678999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K3">
-        <v>1.0652999999999999</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1.7699</v>
+        <v>1.17</v>
       </c>
       <c r="C4">
-        <v>1.7315</v>
+        <v>1.03</v>
       </c>
       <c r="D4">
-        <v>1.6164000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="E4">
-        <v>1.4454</v>
+        <v>1.04</v>
       </c>
       <c r="F4">
-        <v>1.4907999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="G4">
-        <v>1.379</v>
+        <v>1.02</v>
       </c>
       <c r="H4">
-        <v>1.3398000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="I4">
-        <v>1.4000999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="J4">
-        <v>1.4194</v>
+        <v>1.2</v>
       </c>
       <c r="K4">
-        <v>1.4826999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>2.0705</v>
+        <v>1.79</v>
       </c>
       <c r="C5">
-        <v>1.9767999999999999</v>
+        <v>1.59</v>
       </c>
       <c r="D5">
-        <v>1.9386000000000001</v>
+        <v>1.59</v>
       </c>
       <c r="E5">
-        <v>1.7253000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="F5">
-        <v>1.7199</v>
+        <v>1.45</v>
       </c>
       <c r="G5">
-        <v>1.5545</v>
+        <v>1.34</v>
       </c>
       <c r="H5">
-        <v>1.5559000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="I5">
-        <v>1.5991</v>
+        <v>1.39</v>
       </c>
       <c r="J5">
-        <v>1.6236999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="K5">
-        <v>1.7169000000000001</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2.0434999999999999</v>
+        <v>2.06</v>
       </c>
       <c r="C6">
-        <v>1.9491000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="D6">
-        <v>1.9843999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="E6">
-        <v>1.9200999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="F6">
-        <v>1.9027000000000001</v>
+        <v>1.71</v>
       </c>
       <c r="G6">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="H6">
-        <v>1.7111000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="I6">
-        <v>1.8051999999999999</v>
+        <v>1.61</v>
       </c>
       <c r="J6">
-        <v>1.8649</v>
+        <v>1.6</v>
       </c>
       <c r="K6">
-        <v>1.8596999999999999</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1586,34 +1562,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.7158000000000002</v>
+        <v>2.86</v>
       </c>
       <c r="C7">
-        <v>2.6225999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="D7">
-        <v>2.5642999999999998</v>
+        <v>2.59</v>
       </c>
       <c r="E7">
-        <v>2.2481</v>
+        <v>2.33</v>
       </c>
       <c r="F7">
-        <v>2.2606999999999999</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G7">
-        <v>2.0956000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H7">
-        <v>2.0438000000000001</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I7">
-        <v>2.0514999999999999</v>
+        <v>2.06</v>
       </c>
       <c r="J7">
-        <v>2.0474000000000001</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="K7">
-        <v>2.2446000000000002</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1621,34 +1597,34 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>5.0715000000000003</v>
+        <v>4.53</v>
       </c>
       <c r="C8">
-        <v>4.907</v>
+        <v>4.47</v>
       </c>
       <c r="D8">
-        <v>4.2937000000000003</v>
+        <v>4.08</v>
       </c>
       <c r="E8">
-        <v>4.0476999999999999</v>
+        <v>3.92</v>
       </c>
       <c r="F8">
-        <v>3.7463000000000002</v>
+        <v>3.79</v>
       </c>
       <c r="G8">
-        <v>3.3704999999999998</v>
+        <v>3.34</v>
       </c>
       <c r="H8">
-        <v>3.2538</v>
+        <v>3.28</v>
       </c>
       <c r="I8">
-        <v>3.0274000000000001</v>
+        <v>3.04</v>
       </c>
       <c r="J8">
-        <v>2.9805999999999999</v>
+        <v>2.97</v>
       </c>
       <c r="K8">
-        <v>3.7323</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1656,139 +1632,139 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.5312000000000001</v>
+        <v>6.87</v>
       </c>
       <c r="C9">
-        <v>5.4481999999999999</v>
+        <v>5.72</v>
       </c>
       <c r="D9">
-        <v>4.5922000000000001</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="E9">
-        <v>3.9155000000000002</v>
+        <v>4.03</v>
       </c>
       <c r="F9">
-        <v>3.5634999999999999</v>
+        <v>3.66</v>
       </c>
       <c r="G9">
-        <v>2.9958999999999998</v>
+        <v>3.04</v>
       </c>
       <c r="H9">
-        <v>3.1993999999999998</v>
+        <v>3.13</v>
       </c>
       <c r="I9">
-        <v>3.5596000000000001</v>
+        <v>3.37</v>
       </c>
       <c r="J9">
-        <v>4.5067000000000004</v>
+        <v>4.13</v>
       </c>
       <c r="K9">
-        <v>4.1740000000000004</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>6.3503999999999996</v>
+        <v>6.45</v>
       </c>
       <c r="C10">
-        <v>5.2882999999999996</v>
+        <v>5.46</v>
       </c>
       <c r="D10">
-        <v>4.4824000000000002</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>3.8845999999999998</v>
+        <v>4.55</v>
       </c>
       <c r="F10">
-        <v>3.6128</v>
+        <v>4.38</v>
       </c>
       <c r="G10">
-        <v>3.1840999999999999</v>
+        <v>3.98</v>
       </c>
       <c r="H10">
-        <v>3.5297000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="I10">
-        <v>4.0781999999999998</v>
+        <v>3.55</v>
       </c>
       <c r="J10">
-        <v>5.3380999999999998</v>
+        <v>3.49</v>
       </c>
       <c r="K10">
-        <v>4.3982000000000001</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>6.3478000000000003</v>
+        <v>6.36</v>
       </c>
       <c r="C11">
-        <v>5.2858999999999998</v>
+        <v>5.29</v>
       </c>
       <c r="D11">
-        <v>4.4821</v>
+        <v>4.47</v>
       </c>
       <c r="E11">
-        <v>3.8826999999999998</v>
+        <v>3.89</v>
       </c>
       <c r="F11">
-        <v>3.6128</v>
+        <v>3.61</v>
       </c>
       <c r="G11">
-        <v>3.1848999999999998</v>
+        <v>3.18</v>
       </c>
       <c r="H11">
-        <v>3.5308000000000002</v>
+        <v>3.53</v>
       </c>
       <c r="I11">
-        <v>4.0787000000000004</v>
+        <v>4.09</v>
       </c>
       <c r="J11">
-        <v>5.3406000000000002</v>
+        <v>5.35</v>
       </c>
       <c r="K11">
-        <v>4.3982999999999999</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>6.9668999999999999</v>
+        <v>6.35</v>
       </c>
       <c r="C12">
-        <v>5.6669999999999998</v>
+        <v>5.29</v>
       </c>
       <c r="D12">
-        <v>5.1173999999999999</v>
+        <v>4.47</v>
       </c>
       <c r="E12">
-        <v>4.7272999999999996</v>
+        <v>3.89</v>
       </c>
       <c r="F12">
-        <v>4.4210000000000003</v>
+        <v>3.61</v>
       </c>
       <c r="G12">
-        <v>4.0579000000000001</v>
+        <v>3.18</v>
       </c>
       <c r="H12">
-        <v>3.7168999999999999</v>
+        <v>3.53</v>
       </c>
       <c r="I12">
-        <v>3.7094</v>
+        <v>4.09</v>
       </c>
       <c r="J12">
-        <v>3.6311</v>
+        <v>5.35</v>
       </c>
       <c r="K12">
-        <v>4.5122999999999998</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
   </sheetData>
